--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>602.2354438695104</v>
+        <v>997.1400259076827</v>
       </c>
       <c r="R2">
-        <v>602.2354438695104</v>
+        <v>3988.560103630731</v>
       </c>
       <c r="S2">
-        <v>0.0002884802001443686</v>
+        <v>0.0003067035830614158</v>
       </c>
       <c r="T2">
-        <v>0.0002884802001443686</v>
+        <v>0.000160632063754398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>407.5521764390871</v>
+        <v>719.5687760469239</v>
       </c>
       <c r="R3">
-        <v>407.5521764390871</v>
+        <v>4317.412656281544</v>
       </c>
       <c r="S3">
-        <v>0.0001952238690453024</v>
+        <v>0.0002213273122516711</v>
       </c>
       <c r="T3">
-        <v>0.0001952238690453024</v>
+        <v>0.0001738760071401619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>307.4689105878458</v>
+        <v>512.1618406777935</v>
       </c>
       <c r="R4">
-        <v>307.4689105878458</v>
+        <v>3072.971044066761</v>
       </c>
       <c r="S4">
-        <v>0.000147282418807239</v>
+        <v>0.0001575324102552396</v>
       </c>
       <c r="T4">
-        <v>0.000147282418807239</v>
+        <v>0.000123758365886631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>289.0974245075406</v>
+        <v>482.4964308973425</v>
       </c>
       <c r="R5">
-        <v>289.0974245075406</v>
+        <v>2894.978585384055</v>
       </c>
       <c r="S5">
-        <v>0.0001384821895358708</v>
+        <v>0.0001484078267100476</v>
       </c>
       <c r="T5">
-        <v>0.0001384821895358708</v>
+        <v>0.0001165900406694941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>424.764077623442</v>
+        <v>737.5570732994219</v>
       </c>
       <c r="R6">
-        <v>424.764077623442</v>
+        <v>4425.342439796531</v>
       </c>
       <c r="S6">
-        <v>0.0002034686390087317</v>
+        <v>0.0002268602114204642</v>
       </c>
       <c r="T6">
-        <v>0.0002034686390087317</v>
+        <v>0.0001782226844914186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>510.7200392779171</v>
+        <v>847.6755633654097</v>
       </c>
       <c r="R7">
-        <v>510.7200392779171</v>
+        <v>3390.702253461639</v>
       </c>
       <c r="S7">
-        <v>0.0002446428895017954</v>
+        <v>0.0002607308159364224</v>
       </c>
       <c r="T7">
-        <v>0.0002446428895017954</v>
+        <v>0.0001365544172330357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>4639.411364936273</v>
+        <v>5230.213759790702</v>
       </c>
       <c r="R8">
-        <v>4639.411364936273</v>
+        <v>31381.28255874422</v>
       </c>
       <c r="S8">
-        <v>0.002222350631688938</v>
+        <v>0.001608726215603185</v>
       </c>
       <c r="T8">
-        <v>0.002222350631688938</v>
+        <v>0.001263824550639809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>3139.639518768849</v>
+        <v>3774.29289348857</v>
       </c>
       <c r="R9">
-        <v>3139.639518768849</v>
+        <v>33968.63604139713</v>
       </c>
       <c r="S9">
-        <v>0.001503936452056208</v>
+        <v>0.00116090932454792</v>
       </c>
       <c r="T9">
-        <v>0.001503936452056208</v>
+        <v>0.001368025545179754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>2368.633019970356</v>
+        <v>2686.398937716226</v>
       </c>
       <c r="R10">
-        <v>2368.633019970356</v>
+        <v>24177.59043944604</v>
       </c>
       <c r="S10">
-        <v>0.001134612276021509</v>
+        <v>0.000826291351588196</v>
       </c>
       <c r="T10">
-        <v>0.001134612276021509</v>
+        <v>0.0009737088442923412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>2227.105512449221</v>
+        <v>2530.797487175408</v>
       </c>
       <c r="R11">
-        <v>2227.105512449221</v>
+        <v>22777.17738457867</v>
       </c>
       <c r="S11">
-        <v>0.001066818385590049</v>
+        <v>0.0007784309496682343</v>
       </c>
       <c r="T11">
-        <v>0.001066818385590049</v>
+        <v>0.0009173097345215808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>3272.233989552203</v>
+        <v>3868.645378957778</v>
       </c>
       <c r="R12">
-        <v>3272.233989552203</v>
+        <v>34817.80841062</v>
       </c>
       <c r="S12">
-        <v>0.001567451278124643</v>
+        <v>0.001189930569921973</v>
       </c>
       <c r="T12">
-        <v>0.001567451278124643</v>
+        <v>0.001402224430644039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>3934.408674624717</v>
+        <v>4446.240528070594</v>
       </c>
       <c r="R13">
-        <v>3934.408674624717</v>
+        <v>26677.44316842357</v>
       </c>
       <c r="S13">
-        <v>0.001884643312610151</v>
+        <v>0.001367589170709295</v>
       </c>
       <c r="T13">
-        <v>0.001884643312610151</v>
+        <v>0.00107438590380868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>347258.7503379758</v>
+        <v>552067.5094994621</v>
       </c>
       <c r="R14">
-        <v>347258.7503379758</v>
+        <v>3312405.056996773</v>
       </c>
       <c r="S14">
-        <v>0.1663423745964187</v>
+        <v>0.1698067260926033</v>
       </c>
       <c r="T14">
-        <v>0.1663423745964187</v>
+        <v>0.1334011388750422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>235001.2124467799</v>
+        <v>398389.9269755919</v>
       </c>
       <c r="R15">
-        <v>235001.2124467799</v>
+        <v>3585509.342780327</v>
       </c>
       <c r="S15">
-        <v>0.112569257573464</v>
+        <v>0.1225380737753097</v>
       </c>
       <c r="T15">
-        <v>0.112569257573464</v>
+        <v>0.144399921369419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>177291.5738278082</v>
+        <v>283558.8829023971</v>
       </c>
       <c r="R16">
-        <v>177291.5738278082</v>
+        <v>2552029.946121574</v>
       </c>
       <c r="S16">
-        <v>0.08492543775427157</v>
+        <v>0.08721796651968854</v>
       </c>
       <c r="T16">
-        <v>0.08492543775427157</v>
+        <v>0.1027784028214525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>166698.2762013726</v>
+        <v>267134.6009858563</v>
       </c>
       <c r="R17">
-        <v>166698.2762013726</v>
+        <v>2404211.408872706</v>
       </c>
       <c r="S17">
-        <v>0.07985108244926371</v>
+        <v>0.08216613229166381</v>
       </c>
       <c r="T17">
-        <v>0.07985108244926371</v>
+        <v>0.0968252778634438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>244925.8745653298</v>
+        <v>408349.1646015038</v>
       </c>
       <c r="R18">
-        <v>244925.8745653298</v>
+        <v>3675142.481413534</v>
       </c>
       <c r="S18">
-        <v>0.1173233260087733</v>
+        <v>0.1256013685835256</v>
       </c>
       <c r="T18">
-        <v>0.1173233260087733</v>
+        <v>0.1480097343508831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>294489.4798497434</v>
+        <v>469316.3697893933</v>
       </c>
       <c r="R19">
-        <v>294489.4798497434</v>
+        <v>2815898.21873636</v>
       </c>
       <c r="S19">
-        <v>0.141065068408482</v>
+        <v>0.1443538605049535</v>
       </c>
       <c r="T19">
-        <v>0.141065068408482</v>
+        <v>0.113405221545041</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>126642.2177014645</v>
+        <v>173827.4559652827</v>
       </c>
       <c r="R20">
-        <v>126642.2177014645</v>
+        <v>1042964.735791696</v>
       </c>
       <c r="S20">
-        <v>0.06066360371370166</v>
+        <v>0.05346641614398354</v>
       </c>
       <c r="T20">
-        <v>0.06066360371370166</v>
+        <v>0.04200352347223679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>85702.87912925945</v>
+        <v>125439.5636344351</v>
       </c>
       <c r="R21">
-        <v>85702.87912925945</v>
+        <v>1128956.072709916</v>
       </c>
       <c r="S21">
-        <v>0.04105302000377512</v>
+        <v>0.03858311032025868</v>
       </c>
       <c r="T21">
-        <v>0.04105302000377512</v>
+        <v>0.045466669458579</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>64656.68055156037</v>
+        <v>89283.13726698166</v>
       </c>
       <c r="R22">
-        <v>64656.68055156037</v>
+        <v>803548.2354028348</v>
       </c>
       <c r="S22">
-        <v>0.03097156159780278</v>
+        <v>0.02746199871158589</v>
       </c>
       <c r="T22">
-        <v>0.03097156159780278</v>
+        <v>0.03236145576983194</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>60793.39790460686</v>
+        <v>84111.68433326817</v>
       </c>
       <c r="R23">
-        <v>60793.39790460686</v>
+        <v>757005.1589994136</v>
       </c>
       <c r="S23">
-        <v>0.02912098876527967</v>
+        <v>0.02587134634261736</v>
       </c>
       <c r="T23">
-        <v>0.02912098876527967</v>
+        <v>0.03048701732038885</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>89322.31627636544</v>
+        <v>128575.391970784</v>
       </c>
       <c r="R24">
-        <v>89322.31627636544</v>
+        <v>1157178.527737056</v>
       </c>
       <c r="S24">
-        <v>0.04278678702668276</v>
+        <v>0.03954763863286779</v>
       </c>
       <c r="T24">
-        <v>0.04278678702668276</v>
+        <v>0.04660327792816141</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>107397.7280100917</v>
+        <v>147771.9104993473</v>
       </c>
       <c r="R25">
-        <v>107397.7280100917</v>
+        <v>886631.4629960839</v>
       </c>
       <c r="S25">
-        <v>0.05144519205368254</v>
+        <v>0.04545216644445151</v>
       </c>
       <c r="T25">
-        <v>0.05144519205368254</v>
+        <v>0.03570748289865255</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>1326.229510775322</v>
+        <v>1529.495901000881</v>
       </c>
       <c r="R26">
-        <v>1326.229510775322</v>
+        <v>9176.975406005286</v>
       </c>
       <c r="S26">
-        <v>0.0006352846857494674</v>
+        <v>0.000470447340319833</v>
       </c>
       <c r="T26">
-        <v>0.0006352846857494674</v>
+        <v>0.0003695861313831315</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>897.5023457625369</v>
+        <v>1103.734144510096</v>
       </c>
       <c r="R27">
-        <v>897.5023457625369</v>
+        <v>9933.607300590864</v>
       </c>
       <c r="S27">
-        <v>0.0004299176658750705</v>
+        <v>0.0003394901499017889</v>
       </c>
       <c r="T27">
-        <v>0.0004299176658750705</v>
+        <v>0.0004000581161525338</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>677.1012018945443</v>
+        <v>785.596220804274</v>
       </c>
       <c r="R28">
-        <v>677.1012018945443</v>
+        <v>7070.365987238466</v>
       </c>
       <c r="S28">
-        <v>0.0003243420695824305</v>
+        <v>0.0002416362491725763</v>
       </c>
       <c r="T28">
-        <v>0.0003243420695824305</v>
+        <v>0.0002847462368675802</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>636.643923525226</v>
+        <v>740.0929599965366</v>
       </c>
       <c r="R29">
-        <v>636.643923525226</v>
+        <v>6660.83663996883</v>
       </c>
       <c r="S29">
-        <v>0.0003049624002519648</v>
+        <v>0.0002276402077259327</v>
       </c>
       <c r="T29">
-        <v>0.0003049624002519648</v>
+        <v>0.0002682531811004047</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>935.4060120439028</v>
+        <v>1131.326083654888</v>
       </c>
       <c r="R30">
-        <v>935.4060120439028</v>
+        <v>10181.93475289399</v>
       </c>
       <c r="S30">
-        <v>0.0004480741150617827</v>
+        <v>0.0003479769685826626</v>
       </c>
       <c r="T30">
-        <v>0.0004480741150617827</v>
+        <v>0.0004100590563700355</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1124.69632056639</v>
+        <v>1300.234937781989</v>
       </c>
       <c r="R31">
-        <v>1124.69632056639</v>
+        <v>7801.409626691934</v>
       </c>
       <c r="S31">
-        <v>0.0005387471344661145</v>
+        <v>0.0003999305051227515</v>
       </c>
       <c r="T31">
-        <v>0.0005387471344661145</v>
+        <v>0.0003141877008166988</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>14147.80666765387</v>
+        <v>20864.35999606828</v>
       </c>
       <c r="R32">
-        <v>14147.80666765387</v>
+        <v>83457.43998427312</v>
       </c>
       <c r="S32">
-        <v>0.006777020749334959</v>
+        <v>0.006417527932701659</v>
       </c>
       <c r="T32">
-        <v>0.006777020749334959</v>
+        <v>0.003361097857878428</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>9574.277731303882</v>
+        <v>15056.40290761252</v>
       </c>
       <c r="R33">
-        <v>9574.277731303882</v>
+        <v>90338.41744567512</v>
       </c>
       <c r="S33">
-        <v>0.004586228831730419</v>
+        <v>0.00463109753876093</v>
       </c>
       <c r="T33">
-        <v>0.004586228831730419</v>
+        <v>0.003638216813480063</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>7223.106423894796</v>
+        <v>10716.57815603501</v>
       </c>
       <c r="R34">
-        <v>7223.106423894796</v>
+        <v>64299.46893621003</v>
       </c>
       <c r="S34">
-        <v>0.003459980989230413</v>
+        <v>0.003296240079844049</v>
       </c>
       <c r="T34">
-        <v>0.003459980989230413</v>
+        <v>0.002589545130367544</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>6791.520677975184</v>
+        <v>10095.85310939294</v>
       </c>
       <c r="R35">
-        <v>6791.520677975184</v>
+        <v>60575.11865635765</v>
       </c>
       <c r="S35">
-        <v>0.003253244664376502</v>
+        <v>0.0031053154444321</v>
       </c>
       <c r="T35">
-        <v>0.003253244664376502</v>
+        <v>0.00243955364069377</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>9978.622332435958</v>
+        <v>15432.79368507706</v>
       </c>
       <c r="R36">
-        <v>9978.622332435958</v>
+        <v>92596.76211046235</v>
       </c>
       <c r="S36">
-        <v>0.004779916222018179</v>
+        <v>0.004746869042341445</v>
       </c>
       <c r="T36">
-        <v>0.004779916222018179</v>
+        <v>0.003729167571334581</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>11997.91286041637</v>
+        <v>17736.93528933049</v>
       </c>
       <c r="R37">
-        <v>11997.91286041637</v>
+        <v>70947.74115732197</v>
       </c>
       <c r="S37">
-        <v>0.005747187978589911</v>
+        <v>0.005455584435911288</v>
       </c>
       <c r="T37">
-        <v>0.005747187978589911</v>
+        <v>0.002857292302161728</v>
       </c>
     </row>
   </sheetData>
